--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" createdVersion="5" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="2">
     <x:pivotField name="Col1" axis="axisRow" showAll="0" defaultSubtotal="0">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -98,7 +98,7 @@
         <x:item x="0"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Col2" defaultSubtotal="0"/>
+    <x:pivotField name="Col2"/>
   </x:pivotFields>
   <x:rowFields count="1">
     <x:field x="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -437,7 +437,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -12,13 +12,13 @@
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId7"/>
+    <x:pivotCache cacheId="0" r:id="rId6"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Col1</x:t>
   </x:si>
@@ -447,7 +447,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId6"/>
+    <x:tablePart r:id="rId7"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -483,7 +483,9 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Col2">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2" count="1"/>
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="2" count="1">
+        <x:n v="2"/>
+      </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
 </x:pivotCacheDefinition>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -457,7 +457,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <x:sheet name="pvt" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="pvt" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -492,5 +492,10 @@
 </file>
 
 <file path=pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <s v="1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890 1234567890"/>
+    <n v="2"/>
+  </r>
+</pivotCacheRecords>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -90,34 +90,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="2">
-    <x:pivotField name="Col1" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="1">
-        <x:item x="0"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Col2" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="2">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField name="Col1" axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -93,10 +93,9 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
   <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
   <pivotFields count="2">
-    <pivotField name="Col1" axis="axisRow" showAll="0">
-      <items count="2">
+    <pivotField name="Col1" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
         <item x="0"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/LongText/outputfile.xlsx
@@ -90,34 +90,26 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
-  <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="2">
-    <x:pivotField name="Col1" axis="axisRow" showAll="0" defaultSubtotal="0">
-      <x:items count="1">
-        <x:item x="0"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Col2" defaultSubtotal="0"/>
-  </x:pivotFields>
-  <x:rowFields count="1">
-    <x:field x="0"/>
-  </x:rowFields>
-  <x:rowItems count="2">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" outline="1">
+  <location ref="A1" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField name="Col1" axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
